--- a/medicine/Psychotrope/Mitch_Morgan/Mitch_Morgan.xlsx
+++ b/medicine/Psychotrope/Mitch_Morgan/Mitch_Morgan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un Mitch Morgan est un cocktail alcoolisé composé de bourbon servit avec un morceau de bacon grillé comme garniture.
-Nommé d'après le nom de son créateur, ce cocktail est populaire au Fat Alley Barbecue à Telluride. Le breuvage a inspiré la création du sel de bacon de J&amp;D's Down Home Enterprises (en)[1],[2].
+Nommé d'après le nom de son créateur, ce cocktail est populaire au Fat Alley Barbecue à Telluride. Le breuvage a inspiré la création du sel de bacon de J&amp;D's Down Home Enterprises (en),.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 28 octobre 2008, on sert des Mitch Morgan grâce à une collecte de fonds caritative organisée par J&amp;D's Down Home Enterprises au Heavens night club de Seattle. L'événement était l'occasion du lancement de la Baconnaise (en) et du Bacon Lip Balm (en).
-Le cocktail est composé de bourbon Maker's Mark et de bacon du « Bacon is Meat Candy Bacon Club ». Environ un millier de Mitch Morgan sont vendus lors de l'événement[3].
+Le cocktail est composé de bourbon Maker's Mark et de bacon du « Bacon is Meat Candy Bacon Club ». Environ un millier de Mitch Morgan sont vendus lors de l'événement.
 On sert à nouveau des Mitch Morgan le 19 novembre 2009 au Bacathlon, une activité promotionnelle de J&amp;D's Down Home Enterprises décrite comme « la première compétition athlétique et d'endurance basée sur le bacon »,[trad 1] et qui comprenait notamment une tentative d'établir le record mondial de consommation de bacon.
 </t>
         </is>
